--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541893.064374088</v>
+        <v>1539347.878300803</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.61419860704439</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>98.63122914173739</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>9.89868258153553</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>76.27793650827118</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.1507183801855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>133.675685265885</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>225.7295147172697</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.63771934990509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>351.9322487894036</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>242.1034170221457</v>
+        <v>86.86523867954843</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>109.7234882887309</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.01782305658435</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>55.52079624060203</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>166.1566063360888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>101.1527559011482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V22" t="n">
-        <v>128.3548363691454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="F25" t="n">
-        <v>46.15319674220952</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>195.1384308315443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.31547498186427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>172.3645574474252</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>241.7859926947189</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>3.475606507922318</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276337</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>540.5667372199621</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2346.437313805353</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2346.437313805353</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.2978374347314</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>325.2978374347314</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>325.2978374347314</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347314</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347314</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347314</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.2978374347314</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1301.680602758765</v>
+        <v>1939.53435171864</v>
       </c>
       <c r="C8" t="n">
-        <v>1301.680602758765</v>
+        <v>1570.571834778228</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.680602758765</v>
+        <v>1212.306136171478</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>826.5178835732336</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,19 +4805,19 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>803.6554202972151</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1435.373231280527</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>2062.680899340373</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.394500419803</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.928742158723</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.789410182911</v>
+        <v>2326.134191782762</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2093.514403512715</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2517.482171993552</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>554.6442689908469</v>
+        <v>966.134997946832</v>
       </c>
       <c r="X10" t="n">
-        <v>554.6442689908469</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>517.3528679052845</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2344.545841391669</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2124.944376414609</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1835.869149758807</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1581.18466155292</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960149</v>
+        <v>763.7541388327625</v>
       </c>
       <c r="C16" t="n">
-        <v>614.621784468108</v>
+        <v>594.8179559048556</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925198</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>296.7882229101267</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122163</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947397</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.405732304763</v>
+        <v>1683.60190374151</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.988562267802</v>
+        <v>1394.18473370455</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.999011369785</v>
+        <v>1166.195182806532</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262546</v>
+        <v>945.4026036630022</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958734</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>652.8121879835377</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>504.8990944011446</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
         <v>705.9324428257312</v>
@@ -5914,19 +5914,19 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.0424953278208</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1189.473090199608</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>961.4835393015907</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>740.6909601580605</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991052</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711983</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711983</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888052</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908948</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057747</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2040.99607061374</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.311582407853</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.894412370892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.904861472875</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.112282329345</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>187.5579996183521</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,10 +8465,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>35.04072454780373</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.03931925844918</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>110.0033420516668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>85.98103698773917</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>44.26829212178308</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V22" t="n">
-        <v>123.7828069546826</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="F25" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>30.57122455749288</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.2691783702305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>45.04089287986309</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>44.73700564187214</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.7088678813219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>84.77391660562006</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682753</v>
-      </c>
       <c r="G4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682749</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682747</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682753</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758105</v>
+        <v>-369598.2665758103</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387345</v>
+        <v>220369.6126387341</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493911</v>
+        <v>64565.80654493932</v>
       </c>
       <c r="E6" t="n">
-        <v>-373386.1329651425</v>
+        <v>-373420.8708905783</v>
       </c>
       <c r="F6" t="n">
-        <v>397666.5584156637</v>
+        <v>397631.820490228</v>
       </c>
       <c r="G6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="H6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="I6" t="n">
-        <v>397666.5584156639</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="J6" t="n">
-        <v>221243.3392230708</v>
+        <v>221208.6012976352</v>
       </c>
       <c r="K6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="L6" t="n">
-        <v>397666.5584156637</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="M6" t="n">
-        <v>273458.0477076054</v>
+        <v>273423.3097821697</v>
       </c>
       <c r="N6" t="n">
-        <v>397666.5584156639</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="O6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="P6" t="n">
-        <v>397666.5584156639</v>
+        <v>397631.8204902282</v>
       </c>
     </row>
   </sheetData>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>326.2618471346671</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>271.0998715367317</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.5352800650336</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>174.9462310000181</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.087220275868</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74536275704625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>60.79348361932134</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.0961223135755</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>54.94379695230782</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>44.41958131444531</v>
+        <v>199.6577596570426</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28488,25 +28488,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-1.696776052995119e-12</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>652.3203287778407</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>328.294015619618</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35185,10 +35185,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>146.8935783352043</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.0059265331734</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>520.9786166945074</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>526.8707440555626</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
